--- a/biology/Médecine/Noël_Fiessinger/Noël_Fiessinger.xlsx
+++ b/biology/Médecine/Noël_Fiessinger/Noël_Fiessinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Fiessinger</t>
+          <t>Noël_Fiessinger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël Armand Fiessinger, né le 24 décembre 1881 à Thaon-les-Vosges et mort le 15 janvier 1946 à Paris, est un médecin et physiologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Fiessinger</t>
+          <t>Noël_Fiessinger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Une grande famille de médecins
-Il est l'arrière petit-fils de Jacques Samuel Fiessinger, infirmier major à l'hôpital de Strasbourg après les campagnes napoléoniennes. Son grand père sera médecin cantonal à Mutzig. Son père Charles Fiessinger (1857-1942), qui quittera l'Alsace après les événements de 1870, sera lui aussi médecin dans les monts du Jura, à Oyonnax, puis à Paris à partir de 1901; il met un terme à la pratique médicale au début des années 1930. Ce dernier, correspondant national de l'Académie nationale de médecine (1896), a dirigé pendant plusieurs dizaines d'années Le Journal des praticiens, de 1901 à sa mort, a collaboré à des périodiques comme Candide  ou Le Figaro, et a publié de nombreux ouvrages[1].
-Carrière médicale
-Il commence ses études de médecine à Lyon, nommé major à l'externat en 1900. En 1904, il est interne des Hôpitaux de Paris. Il exerce alors dans le service du professeur Anatole Chauffard qu'il considère comme son grand maître.
+          <t>Une grande famille de médecins</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'arrière petit-fils de Jacques Samuel Fiessinger, infirmier major à l'hôpital de Strasbourg après les campagnes napoléoniennes. Son grand père sera médecin cantonal à Mutzig. Son père Charles Fiessinger (1857-1942), qui quittera l'Alsace après les événements de 1870, sera lui aussi médecin dans les monts du Jura, à Oyonnax, puis à Paris à partir de 1901; il met un terme à la pratique médicale au début des années 1930. Ce dernier, correspondant national de l'Académie nationale de médecine (1896), a dirigé pendant plusieurs dizaines d'années Le Journal des praticiens, de 1901 à sa mort, a collaboré à des périodiques comme Candide  ou Le Figaro, et a publié de nombreux ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Noël_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/No%C3%ABl_Fiessinger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence ses études de médecine à Lyon, nommé major à l'externat en 1900. En 1904, il est interne des Hôpitaux de Paris. Il exerce alors dans le service du professeur Anatole Chauffard qu'il considère comme son grand maître.
 Durant la guerre de 1914-1918, Noël Fiessinger s'engage et dès le début du conflit il rejoint le front ; il est rapidement affecté au laboratoire d'un centre hospitalier (Montdidier) où il crée un laboratoire de fortune dédié à la biologie des plaies de guerre. Ses travaux se concluent par la publication d'un Traité de Biologie de la plaie de guerre, en collaboration avec le professeur Pierre Delbet.
 Son engagement et ses missions aux postes les plus avancés lui valent la Croix de guerre et la Légion d'honneur à titre militaire.
 Au début de la seconde guerre mondiale, âgé de 60 ans, il s'enrôle à nouveau  et suit les forces armées lors de l'embarquement à Dunkerque. Il est un des rares médecins à avoir les médailles militaires pour les  deux guerres mondiales . 
@@ -524,40 +576,77 @@
 Il accumule les titres et les honneurs : codirecteur du Journal des Praticiens, vice-président de l'Association de la Presse médicale française, président de la Société de pathologie comparée, président de la Société anatomique, vice-président de la Société de biologie, officier de la Légion d'honneur... Il a été élu à l'Académie de médecine dans la section médecine le 15 octobre 1940, succédant à l'illustre neurobiologiste Pierre Marie.
 À la retraite du professeur Carnot en 1939, il est nommé à la chaire de Clinique médicale de l'Hôtel-Dieu, mais la Deuxième Guerre mondiale le mobilise le 3 septembre 1939 avec fonction de consultant de l'Armée du Nord (1re armée), et ce n'est que le 13 octobre 1940 sous l'occupation qu'il prendra en charge la chaire de l'Hôtel-Dieu. À la fin de sa leçon d'ouverture, le médecin général Mahaut lui remit la croix de guerre, si bien que Fiessinger portait les croix de guerre des deux conflits mondiaux.
 Il s'est investi dans le syndicalisme médical et a été Président de la Chambre syndicale des médecins de la Seine et président de la Confédération des syndicats médicaux français (CSMF). 
-Il meurt en son domicile, 16 Boulevard Raspail dans le 7e arrondissement, le 15 janvier 1946 [2].
+Il meurt en son domicile, 16 Boulevard Raspail dans le 7e arrondissement, le 15 janvier 1946 .
 De nombreuses salles dans plusieurs hôpitaux parisiens portent le nom du professeur Fiessinger (hôpital Laennec, hôpital Saint-Antoine…), ainsi qu'un bâtiment du CHU d'Angers.
-Polémiques
-Noël Fiessinger est le fils  de Charles Fiessinger, royaliste, soutien assumé de l'Action française, ami et médecin de Charles Maurras[3]. Charles Fiessinger, qui publie quelques articles dans L'Action française[4], a été l'un des animateurs principaux des banquets médicaux d'Action française dans les années 1930, à Paris et en province[5]. Il loue Maurras, qu'il a soigné lorsque ce dernier était en prison (1936-37) pour provocation au meurtre, lors d'une réunion en hommage au "maître du nationalisme intégral" en 1937[6]. Il s'intéresse aussi aux étudiants d'Action française[7].
-Proche de jeunes médecins d'origine juive comme Louis Lyon-Caen, Robert Debré[8] ou Maurice Tubiana[9], Noël Fiessinger inspire et dirige en 1939 une thèse de médecine intitulée Aspect médical et social du problème des étrangers en France, rédigée par Albin Faivre[10],[11]. Un chapitre y est en particulier consacré à « l'envahissement de la profession médicale par les étrangers et principalement par les Israélites. » Ouvertement antisémite et xénophobe[12],[13], la thèse reprend largement les thèmes idéologiques de l'Action française[14]. Médecin et historien, auteur d'une étude consacrée à La Médecine française et les juifs, 1930-1945, Henri Nahum souligne à ce propos qu'« il est inhabituel qu'une thèse de médecine soit consacrée à un sujet autre que proprement médical, en particulier à un sujet social et, à plus forte raison, politique [...] On peut donc raisonnablement penser que les auteurs de ces deux thèses ainsi que les présidents ont voulu exprimer avec éclat leurs opinions et qu'ils n'ont pas été désavoués par les autres membres du jury[15]. »
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No%C3%ABl_Fiessinger</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Noël_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/No%C3%ABl_Fiessinger</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Polémiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noël Fiessinger est le fils  de Charles Fiessinger, royaliste, soutien assumé de l'Action française, ami et médecin de Charles Maurras. Charles Fiessinger, qui publie quelques articles dans L'Action française, a été l'un des animateurs principaux des banquets médicaux d'Action française dans les années 1930, à Paris et en province. Il loue Maurras, qu'il a soigné lorsque ce dernier était en prison (1936-37) pour provocation au meurtre, lors d'une réunion en hommage au "maître du nationalisme intégral" en 1937. Il s'intéresse aussi aux étudiants d'Action française.
+Proche de jeunes médecins d'origine juive comme Louis Lyon-Caen, Robert Debré ou Maurice Tubiana, Noël Fiessinger inspire et dirige en 1939 une thèse de médecine intitulée Aspect médical et social du problème des étrangers en France, rédigée par Albin Faivre,. Un chapitre y est en particulier consacré à « l'envahissement de la profession médicale par les étrangers et principalement par les Israélites. » Ouvertement antisémite et xénophobe la thèse reprend largement les thèmes idéologiques de l'Action française. Médecin et historien, auteur d'une étude consacrée à La Médecine française et les juifs, 1930-1945, Henri Nahum souligne à ce propos qu'« il est inhabituel qu'une thèse de médecine soit consacrée à un sujet autre que proprement médical, en particulier à un sujet social et, à plus forte raison, politique [...] On peut donc raisonnablement penser que les auteurs de ces deux thèses ainsi que les présidents ont voulu exprimer avec éclat leurs opinions et qu'ils n'ont pas été désavoués par les autres membres du jury. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noël_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/No%C3%ABl_Fiessinger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il est à l'origine de la découverte de la maladie de Fiessinger-Leroy-Reiter, et a élucidé l'histogenèse des cirrhoses (Thèse de Doctorat en 1908). 
 Ses travaux de recherche ont été publiés dans plus de 700 articles et ses manuels et traités médicaux ont été des références durant de nombreuses années:
@@ -599,33 +688,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No%C3%ABl_Fiessinger</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noël_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/No%C3%ABl_Fiessinger</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions et reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Montyon 1941[16].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Montyon 1941.</t>
         </is>
       </c>
     </row>
